--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332248.235919905</v>
+        <v>1329871.608972539</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>108.4620326080081</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>139.0787224114769</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>282.0179652240194</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>323.8408286396447</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>13.60776174434503</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>100.6867690249409</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>153.7312730021086</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>110.4281445158657</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>33.17487821174112</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>139.6886855406283</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>141.3831318263024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.6164309267706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986257</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419834118</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819343</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699852</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6315337216696</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.85274231757846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>23.10998325717215</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.006892987834567</v>
+        <v>99.97427419833983</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.615473018211</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161927031</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>260.7402930080326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.372291733705</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826188972</v>
       </c>
       <c r="S37" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>115.7228684476128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>98.03921036659332</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>80.56412890121607</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099142</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1412.134398099142</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1053.868699492391</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139075</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163263</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>638.3296170496761</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042426</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>655.4695685676043</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C4" t="n">
-        <v>486.5333856396974</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1057.910612541374</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="X4" t="n">
-        <v>1057.910612541374</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="Y4" t="n">
-        <v>837.118033397844</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2295.013053781158</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="C5" t="n">
-        <v>1926.050536840746</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1567.784838233996</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2548.594114516978</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2548.594114516978</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2295.013053781158</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2295.013053781158</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W5" t="n">
-        <v>2295.013053781158</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X5" t="n">
-        <v>2295.013053781158</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y5" t="n">
-        <v>2295.013053781158</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
         <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
         <v>1967.526114878148</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>934.7929217761706</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>765.8567388482637</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>615.740099435928</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>467.8270058535348</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>320.9370583556245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>152.950593663903</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1192.043668434791</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>937.3591802289043</v>
       </c>
       <c r="W7" t="n">
-        <v>1337.23396574994</v>
+        <v>647.9420101919436</v>
       </c>
       <c r="X7" t="n">
-        <v>1337.23396574994</v>
+        <v>419.9524592939263</v>
       </c>
       <c r="Y7" t="n">
-        <v>1116.44138660641</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.950988797912</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1275.288014512648</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2528.829350408497</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2275.248289672677</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1944.185402329106</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1591.416747058992</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1217.950988797912</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y8" t="n">
-        <v>1217.950988797912</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145199</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192611</v>
@@ -5279,13 +5279,13 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,19 +5297,19 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121674</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998317</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998317</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998317</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614417</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614417</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852257</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348533</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098246</v>
+        <v>513.8536007400752</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819177</v>
+        <v>344.9174178121683</v>
       </c>
       <c r="D19" t="n">
-        <v>664.302781469582</v>
+        <v>344.9174178121683</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871889</v>
+        <v>197.0043242297752</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892785</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797191</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681612</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1166.195182806535</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,7 +6011,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773693</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>117.1600804794589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.917417812166</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773693</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797189</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>261.846482147428</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>261.846482147428</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6658,13 +6658,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1237.37303605497</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1237.37303605497</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1016.58045691144</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063201</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2243.991523718105</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2024.390058741046</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1735.314832085244</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>481.4479471244855</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1097.958364892466</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.0221819645594</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>778.9055425522237</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>630.9924489698305</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>484.1025014719202</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>316.9064021868001</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.1945710289982</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>45.76488231024547</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.21554925516668</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409392767</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.2658363185655</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.265263452946</v>
       </c>
       <c r="G19" t="n">
-        <v>32.89260457059925</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.2658363185655</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.9792378643588</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.5956654067386</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>142.4141550350967</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>142.4141550350967</v>
+        <v>45.44677382459142</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067385</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>25.78270532855839</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823233</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823193</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>32.89260457059954</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>48.39475227997585</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7017074173494535</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>958647.675925359</v>
+        <v>958647.6759253589</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>958647.675925359</v>
+        <v>958647.6759253589</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.9172236548</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
@@ -26332,10 +26332,10 @@
         <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
@@ -26344,16 +26344,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26439,19 +26439,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731975</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849382.4943590579</v>
+        <v>-849382.4943590583</v>
       </c>
       <c r="C6" t="n">
         <v>265369.2892168617</v>
       </c>
       <c r="D6" t="n">
-        <v>265369.2892168616</v>
+        <v>265369.2892168617</v>
       </c>
       <c r="E6" t="n">
-        <v>-132437.3240611816</v>
+        <v>-132472.0619866173</v>
       </c>
       <c r="F6" t="n">
-        <v>375048.1175633643</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="G6" t="n">
-        <v>375048.1175633646</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="H6" t="n">
-        <v>375048.1175633647</v>
+        <v>375013.3796379291</v>
       </c>
       <c r="I6" t="n">
-        <v>375048.1175633645</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="J6" t="n">
-        <v>207442.9397533821</v>
+        <v>207408.2018279462</v>
       </c>
       <c r="K6" t="n">
-        <v>375048.1175633644</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="L6" t="n">
-        <v>375048.1175633645</v>
+        <v>375013.3796379288</v>
       </c>
       <c r="M6" t="n">
-        <v>242440.8238344378</v>
+        <v>242406.0859090021</v>
       </c>
       <c r="N6" t="n">
-        <v>375048.1175633646</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="O6" t="n">
-        <v>375048.1175633646</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="P6" t="n">
-        <v>375048.1175633646</v>
+        <v>375013.3796379287</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996103</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>273.4683374642536</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9.536750606735467</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.505033112571596</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>41.4320631313629</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.8444536544494</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>46.56474013018793</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>40.93118735962889</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>244.2548971048173</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>173.4833067684926</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>78.89596781146648</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30201,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-9.297825982088264e-14</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>613.2529048371025</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>302.3396059822662</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862124</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106269</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.6544928674244</v>
@@ -32546,7 +32546,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,25 +33020,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33737,25 +33737,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>235.5705495535871</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>535.8585467435946</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>661.8411144019726</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>343.4452429480957</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>411.6868389156661</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>535.6747904601043</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065826</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>163.785226202392</v>
       </c>
       <c r="M15" t="n">
         <v>603.412613764194</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754089</v>
@@ -35972,19 +35972,19 @@
         <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>61.77582919629669</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,13 +37163,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066233</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578466</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>92.97430510914269</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>393.2623022991502</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>519.7070804799544</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38111,7 +38111,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
